--- a/biology/Botanique/Anthyllis_vulneraria_subsp._baldensis/Anthyllis_vulneraria_subsp._baldensis.xlsx
+++ b/biology/Botanique/Anthyllis_vulneraria_subsp._baldensis/Anthyllis_vulneraria_subsp._baldensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthyllide du mont Bado, Vulnéraire du mont Baldo
 Anthyllis vulneraria subsp. baldensis, la Vulnéraire du mont Baldo ou Anthyllide du mont Baldo, est une sous-espèce d’Anthyllis vulneraria, plante herbacée de la famille des Fabacées. Parfois elle est incluse dans la sous-espèce alpestris. Cette dernière a les fleurs jaunes.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante basse de 10 à 30 cm de hauteur. L'inflorescence est un racème capituliforme de couleur blanchâtre, en forme de boule massive. Chaque fleur forme un tube pris dans le calice poilu. Le fruit est une gousse.
 Les feuilles radicales sont réduites à une grande foliole terminale unique, elliptique et charnue.
@@ -545,7 +559,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Période de floraison : de mai à août.
 Hermaphrodite.
@@ -578,7 +594,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Habitat type : pelouses alpines, roches calcaires sèches.
 </t>
@@ -609,7 +627,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Aire de répartition en France 
 </t>
@@ -640,7 +660,9 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Vulnéraire : utilisé en cataplasme sur les plaies.
 </t>
